--- a/Code/Results/Cases/Case_4_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000659983974514</v>
+        <v>1.026535994458571</v>
       </c>
       <c r="D2">
-        <v>1.017102646207007</v>
+        <v>1.030845768367896</v>
       </c>
       <c r="E2">
-        <v>1.00883106049973</v>
+        <v>1.030165566476787</v>
       </c>
       <c r="F2">
-        <v>1.006442990412656</v>
+        <v>1.037166872292359</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040846261596733</v>
+        <v>1.034037997230285</v>
       </c>
       <c r="J2">
-        <v>1.022820972937984</v>
+        <v>1.031698890435828</v>
       </c>
       <c r="K2">
-        <v>1.028328747019857</v>
+        <v>1.033655599648712</v>
       </c>
       <c r="L2">
-        <v>1.020168720500772</v>
+        <v>1.032977367706252</v>
       </c>
       <c r="M2">
-        <v>1.017813288040244</v>
+        <v>1.039958531108289</v>
       </c>
       <c r="N2">
-        <v>1.011510638135989</v>
+        <v>1.014589358603693</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004502749110614</v>
+        <v>1.027349334693291</v>
       </c>
       <c r="D3">
-        <v>1.01979197491879</v>
+        <v>1.031436204382928</v>
       </c>
       <c r="E3">
-        <v>1.012172980629792</v>
+        <v>1.030926108454984</v>
       </c>
       <c r="F3">
-        <v>1.011165841399596</v>
+        <v>1.038242059231663</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041910406124134</v>
+        <v>1.03421903866973</v>
       </c>
       <c r="J3">
-        <v>1.024871412772088</v>
+        <v>1.032152733101873</v>
       </c>
       <c r="K3">
-        <v>1.030177725116016</v>
+        <v>1.034055061067428</v>
       </c>
       <c r="L3">
-        <v>1.022652439608427</v>
+        <v>1.033546335848341</v>
       </c>
       <c r="M3">
-        <v>1.021657819185186</v>
+        <v>1.040842766802175</v>
       </c>
       <c r="N3">
-        <v>1.012201333676376</v>
+        <v>1.014741129812803</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006943076283163</v>
+        <v>1.02787617975084</v>
       </c>
       <c r="D4">
-        <v>1.02150279459863</v>
+        <v>1.031818706837025</v>
       </c>
       <c r="E4">
-        <v>1.014300555938669</v>
+        <v>1.031419132226238</v>
       </c>
       <c r="F4">
-        <v>1.014166165387387</v>
+        <v>1.03893871727807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04257789336795</v>
+        <v>1.034335279573637</v>
       </c>
       <c r="J4">
-        <v>1.026170829648387</v>
+        <v>1.032446300610625</v>
       </c>
       <c r="K4">
-        <v>1.031348445903457</v>
+        <v>1.034313291789549</v>
       </c>
       <c r="L4">
-        <v>1.024229396122081</v>
+        <v>1.033914736935971</v>
       </c>
       <c r="M4">
-        <v>1.024096571723139</v>
+        <v>1.041415272907436</v>
       </c>
       <c r="N4">
-        <v>1.012638905151328</v>
+        <v>1.014839262753253</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007958276070438</v>
+        <v>1.028097797874449</v>
       </c>
       <c r="D5">
-        <v>1.02221518572989</v>
+        <v>1.031979617203184</v>
       </c>
       <c r="E5">
-        <v>1.015186893447761</v>
+        <v>1.031626613713016</v>
       </c>
       <c r="F5">
-        <v>1.01541464527586</v>
+        <v>1.03923181645785</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042853558095308</v>
+        <v>1.034383929981603</v>
       </c>
       <c r="J5">
-        <v>1.026710728610513</v>
+        <v>1.032569691596269</v>
       </c>
       <c r="K5">
-        <v>1.031834617850047</v>
+        <v>1.034421791650694</v>
       </c>
       <c r="L5">
-        <v>1.024885324199934</v>
+        <v>1.034069669034797</v>
       </c>
       <c r="M5">
-        <v>1.025110494944931</v>
+        <v>1.041656036485401</v>
       </c>
       <c r="N5">
-        <v>1.012820677023492</v>
+        <v>1.014880499913449</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008128114108014</v>
+        <v>1.028135016256814</v>
       </c>
       <c r="D6">
-        <v>1.022334403768604</v>
+        <v>1.032006640950493</v>
       </c>
       <c r="E6">
-        <v>1.015335245866886</v>
+        <v>1.031661463284191</v>
       </c>
       <c r="F6">
-        <v>1.015623529976345</v>
+        <v>1.039281042215909</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042899556176041</v>
+        <v>1.034392085840891</v>
       </c>
       <c r="J6">
-        <v>1.026801011020696</v>
+        <v>1.032590408000214</v>
       </c>
       <c r="K6">
-        <v>1.031915900752167</v>
+        <v>1.034440005685481</v>
       </c>
       <c r="L6">
-        <v>1.024995051138716</v>
+        <v>1.034095686077595</v>
       </c>
       <c r="M6">
-        <v>1.0252800836003</v>
+        <v>1.041696466531605</v>
       </c>
       <c r="N6">
-        <v>1.012851070889773</v>
+        <v>1.014887422750915</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00695668308192</v>
+        <v>1.027879140504438</v>
       </c>
       <c r="D7">
-        <v>1.021512340223306</v>
+        <v>1.031820856513413</v>
       </c>
       <c r="E7">
-        <v>1.014312430704335</v>
+        <v>1.031421903764139</v>
       </c>
       <c r="F7">
-        <v>1.01418289754295</v>
+        <v>1.038942632804126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042581596120632</v>
+        <v>1.034335930497238</v>
       </c>
       <c r="J7">
-        <v>1.026178068633665</v>
+        <v>1.032447949465801</v>
       </c>
       <c r="K7">
-        <v>1.031354965532612</v>
+        <v>1.034314741808428</v>
       </c>
       <c r="L7">
-        <v>1.024238188007594</v>
+        <v>1.033916806926782</v>
       </c>
       <c r="M7">
-        <v>1.024110163833679</v>
+        <v>1.041418489681066</v>
       </c>
       <c r="N7">
-        <v>1.012641342501347</v>
+        <v>1.014839813837163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001968443696674</v>
+        <v>1.026810749843939</v>
       </c>
       <c r="D8">
-        <v>1.01801771300811</v>
+        <v>1.031045214663455</v>
       </c>
       <c r="E8">
-        <v>1.009967853967939</v>
+        <v>1.03042240735422</v>
       </c>
       <c r="F8">
-        <v>1.008050919976378</v>
+        <v>1.037530041505022</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04121032241527</v>
+        <v>1.034099368056436</v>
       </c>
       <c r="J8">
-        <v>1.02351969927305</v>
+        <v>1.031852288545628</v>
       </c>
       <c r="K8">
-        <v>1.028959030901639</v>
+        <v>1.033790650110609</v>
       </c>
       <c r="L8">
-        <v>1.021014476180407</v>
+        <v>1.033169602524252</v>
       </c>
       <c r="M8">
-        <v>1.019122929703933</v>
+        <v>1.040257290393607</v>
       </c>
       <c r="N8">
-        <v>1.011746033645682</v>
+        <v>1.014640665301424</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9928083406369119</v>
+        <v>1.024932460479898</v>
       </c>
       <c r="D9">
-        <v>1.011625928172867</v>
+        <v>1.029681958638151</v>
       </c>
       <c r="E9">
-        <v>1.002033168737384</v>
+        <v>1.028668152687741</v>
       </c>
       <c r="F9">
-        <v>0.9967967672333796</v>
+        <v>1.035048117974889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038627690696191</v>
+        <v>1.033675610330731</v>
       </c>
       <c r="J9">
-        <v>1.018617636171237</v>
+        <v>1.030801947246801</v>
       </c>
       <c r="K9">
-        <v>1.024533157405625</v>
+        <v>1.032865285369823</v>
       </c>
       <c r="L9">
-        <v>1.015093345100947</v>
+        <v>1.031854834870662</v>
       </c>
       <c r="M9">
-        <v>1.00994202932542</v>
+        <v>1.038213804044003</v>
       </c>
       <c r="N9">
-        <v>1.010094073374661</v>
+        <v>1.014289197700811</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9864285550435561</v>
+        <v>1.023683282010027</v>
       </c>
       <c r="D10">
-        <v>1.007194320840344</v>
+        <v>1.028775586229752</v>
       </c>
       <c r="E10">
-        <v>0.9965382490524914</v>
+        <v>1.027503448120229</v>
       </c>
       <c r="F10">
-        <v>0.9889590006290794</v>
+        <v>1.033398427256921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036787062476104</v>
+        <v>1.03338849909931</v>
       </c>
       <c r="J10">
-        <v>1.015191169646244</v>
+        <v>1.030101306339908</v>
       </c>
       <c r="K10">
-        <v>1.021434883283336</v>
+        <v>1.032247196930741</v>
       </c>
       <c r="L10">
-        <v>1.010970289049676</v>
+        <v>1.030979681100072</v>
       </c>
       <c r="M10">
-        <v>1.003530506847142</v>
+        <v>1.036853346768265</v>
       </c>
       <c r="N10">
-        <v>1.008938863005013</v>
+        <v>1.014054545537573</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9835954866534146</v>
+        <v>1.023143107527513</v>
       </c>
       <c r="D11">
-        <v>1.005231809019923</v>
+        <v>1.028383721799947</v>
       </c>
       <c r="E11">
-        <v>0.9941060432840773</v>
+        <v>1.027000277782502</v>
       </c>
       <c r="F11">
-        <v>0.9854776930073231</v>
+        <v>1.032685272322289</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035960153423171</v>
+        <v>1.03326309183482</v>
       </c>
       <c r="J11">
-        <v>1.013667003026975</v>
+        <v>1.029797836577305</v>
       </c>
       <c r="K11">
-        <v>1.02005573095995</v>
+        <v>1.031979291728037</v>
       </c>
       <c r="L11">
-        <v>1.009139973588246</v>
+        <v>1.030601068622877</v>
       </c>
       <c r="M11">
-        <v>1.00067877556668</v>
+        <v>1.036264707779608</v>
       </c>
       <c r="N11">
-        <v>1.008424913888567</v>
+        <v>1.013952862918192</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9825320272675353</v>
+        <v>1.022942573537348</v>
       </c>
       <c r="D12">
-        <v>1.004496007684932</v>
+        <v>1.028238257799269</v>
       </c>
       <c r="E12">
-        <v>0.9931942894801402</v>
+        <v>1.026813553088556</v>
       </c>
       <c r="F12">
-        <v>0.9841706993228062</v>
+        <v>1.032420551761554</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035648354094779</v>
+        <v>1.033216347394399</v>
       </c>
       <c r="J12">
-        <v>1.013094513445709</v>
+        <v>1.029685102310476</v>
       </c>
       <c r="K12">
-        <v>1.01953757523651</v>
+        <v>1.031879740494633</v>
       </c>
       <c r="L12">
-        <v>1.008453048086648</v>
+        <v>1.030460486741249</v>
       </c>
       <c r="M12">
-        <v>0.9996075797939735</v>
+        <v>1.03604612921009</v>
       </c>
       <c r="N12">
-        <v>1.008231860412699</v>
+        <v>1.013915082352928</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9827606554878386</v>
+        <v>1.02298558371828</v>
       </c>
       <c r="D13">
-        <v>1.004654153761587</v>
+        <v>1.028269456136526</v>
       </c>
       <c r="E13">
-        <v>0.9933902468332313</v>
+        <v>1.026853598214483</v>
       </c>
       <c r="F13">
-        <v>0.9844516943934684</v>
+        <v>1.032477327200021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035715449070453</v>
+        <v>1.03322638158396</v>
       </c>
       <c r="J13">
-        <v>1.013217606005016</v>
+        <v>1.029709284722928</v>
       </c>
       <c r="K13">
-        <v>1.019648991223476</v>
+        <v>1.031901096333839</v>
       </c>
       <c r="L13">
-        <v>1.008600720714411</v>
+        <v>1.030490639673317</v>
       </c>
       <c r="M13">
-        <v>0.9998379049979981</v>
+        <v>1.036093011957059</v>
       </c>
       <c r="N13">
-        <v>1.008273369771119</v>
+        <v>1.013923186908767</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9835078110201794</v>
+        <v>1.023126529055142</v>
       </c>
       <c r="D14">
-        <v>1.005171128647094</v>
+        <v>1.028371695816187</v>
       </c>
       <c r="E14">
-        <v>0.9940308495286283</v>
+        <v>1.02698483947755</v>
       </c>
       <c r="F14">
-        <v>0.9853699440935993</v>
+        <v>1.032663386823786</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035934475755692</v>
+        <v>1.033259231238326</v>
       </c>
       <c r="J14">
-        <v>1.013619811905241</v>
+        <v>1.029788518167925</v>
       </c>
       <c r="K14">
-        <v>1.020013021326108</v>
+        <v>1.031971063587772</v>
       </c>
       <c r="L14">
-        <v>1.009083338052438</v>
+        <v>1.030589447019301</v>
       </c>
       <c r="M14">
-        <v>1.000590477244031</v>
+        <v>1.036246638611454</v>
       </c>
       <c r="N14">
-        <v>1.008409000403224</v>
+        <v>1.013949740189226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9839666668043867</v>
+        <v>1.023213384863964</v>
       </c>
       <c r="D15">
-        <v>1.005488739080219</v>
+        <v>1.028434701283086</v>
       </c>
       <c r="E15">
-        <v>0.9944244311523645</v>
+        <v>1.027065724815214</v>
       </c>
       <c r="F15">
-        <v>0.9859338458581907</v>
+        <v>1.032778047769941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03606880453499</v>
+        <v>1.033279449466393</v>
       </c>
       <c r="J15">
-        <v>1.013866775124257</v>
+        <v>1.029837334939348</v>
       </c>
       <c r="K15">
-        <v>1.020236526348516</v>
+        <v>1.032014167545007</v>
       </c>
       <c r="L15">
-        <v>1.009379748974864</v>
+        <v>1.030650332370381</v>
       </c>
       <c r="M15">
-        <v>1.001052561835424</v>
+        <v>1.036341302121092</v>
       </c>
       <c r="N15">
-        <v>1.008492279358241</v>
+        <v>1.0139660990813</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9866150451228964</v>
+        <v>1.02371914707698</v>
       </c>
       <c r="D16">
-        <v>1.007323623631623</v>
+        <v>1.028801605779038</v>
       </c>
       <c r="E16">
-        <v>0.9966985206161172</v>
+        <v>1.027536866348834</v>
       </c>
       <c r="F16">
-        <v>0.9891881383659729</v>
+        <v>1.033445781767021</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036841298583784</v>
+        <v>1.033396799131767</v>
       </c>
       <c r="J16">
-        <v>1.015291448452347</v>
+        <v>1.030121444874581</v>
       </c>
       <c r="K16">
-        <v>1.021525601910833</v>
+        <v>1.032264971344635</v>
       </c>
       <c r="L16">
-        <v>1.011090787381817</v>
+        <v>1.031004815533029</v>
       </c>
       <c r="M16">
-        <v>1.003718126454879</v>
+        <v>1.036892422310734</v>
       </c>
       <c r="N16">
-        <v>1.008972675481424</v>
+        <v>1.014061292297318</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9882570443239304</v>
+        <v>1.024036594314643</v>
       </c>
       <c r="D17">
-        <v>1.008462728756314</v>
+        <v>1.029031917281439</v>
       </c>
       <c r="E17">
-        <v>0.9981105801530995</v>
+        <v>1.027832711282316</v>
       </c>
       <c r="F17">
-        <v>0.9912055396154</v>
+        <v>1.033864948046642</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037317750480406</v>
+        <v>1.0334701190852</v>
       </c>
       <c r="J17">
-        <v>1.016174088392185</v>
+        <v>1.030299636833014</v>
       </c>
       <c r="K17">
-        <v>1.022323985072925</v>
+        <v>1.032422222728269</v>
       </c>
       <c r="L17">
-        <v>1.012151819044933</v>
+        <v>1.031227264057376</v>
       </c>
       <c r="M17">
-        <v>1.005369544939657</v>
+        <v>1.03723824598616</v>
       </c>
       <c r="N17">
-        <v>1.009270278661632</v>
+        <v>1.01412098424429</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9892080221619206</v>
+        <v>1.02422182606303</v>
       </c>
       <c r="D18">
-        <v>1.009122963338774</v>
+        <v>1.029166311943822</v>
       </c>
       <c r="E18">
-        <v>0.9989291363955788</v>
+        <v>1.028005383895875</v>
       </c>
       <c r="F18">
-        <v>0.9923738650172577</v>
+        <v>1.034109553672503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037592782439592</v>
+        <v>1.033512780530591</v>
       </c>
       <c r="J18">
-        <v>1.016685029888689</v>
+        <v>1.03040356466049</v>
       </c>
       <c r="K18">
-        <v>1.022786058974603</v>
+        <v>1.032513918789534</v>
       </c>
       <c r="L18">
-        <v>1.012766379977236</v>
+        <v>1.031357046739499</v>
       </c>
       <c r="M18">
-        <v>1.006325546830825</v>
+        <v>1.037440002251967</v>
       </c>
       <c r="N18">
-        <v>1.009442546400633</v>
+        <v>1.014155794120797</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9895311477901337</v>
+        <v>1.024284997155178</v>
       </c>
       <c r="D19">
-        <v>1.00934738466497</v>
+        <v>1.029212146814912</v>
       </c>
       <c r="E19">
-        <v>0.9992073934559524</v>
+        <v>1.028064279615256</v>
       </c>
       <c r="F19">
-        <v>0.9927708321052665</v>
+        <v>1.03419297701527</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037686078253003</v>
+        <v>1.03352730917984</v>
       </c>
       <c r="J19">
-        <v>1.016858596106194</v>
+        <v>1.03043899988473</v>
       </c>
       <c r="K19">
-        <v>1.022943008793534</v>
+        <v>1.032545180332246</v>
       </c>
       <c r="L19">
-        <v>1.0129752053865</v>
+        <v>1.031401304704815</v>
       </c>
       <c r="M19">
-        <v>1.006650307669537</v>
+        <v>1.037508803220693</v>
       </c>
       <c r="N19">
-        <v>1.009501064028375</v>
+        <v>1.014167662117082</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9880815775735586</v>
+        <v>1.024002527964142</v>
       </c>
       <c r="D20">
-        <v>1.008340948572861</v>
+        <v>1.029007201040406</v>
       </c>
       <c r="E20">
-        <v>0.9979596070595139</v>
+        <v>1.027800958399197</v>
       </c>
       <c r="F20">
-        <v>0.9909899645878212</v>
+        <v>1.033819963774723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037266930104441</v>
+        <v>1.033462263388221</v>
       </c>
       <c r="J20">
-        <v>1.016079793432745</v>
+        <v>1.030280519396467</v>
       </c>
       <c r="K20">
-        <v>1.022238701088396</v>
+        <v>1.032405353825619</v>
       </c>
       <c r="L20">
-        <v>1.012038429452182</v>
+        <v>1.031203394093473</v>
       </c>
       <c r="M20">
-        <v>1.005193116657896</v>
+        <v>1.037201137907478</v>
       </c>
       <c r="N20">
-        <v>1.009238485710597</v>
+        <v>1.014114580628485</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9832881040323567</v>
+        <v>1.023085021094084</v>
       </c>
       <c r="D21">
-        <v>1.005019083557858</v>
+        <v>1.028341586228902</v>
       </c>
       <c r="E21">
-        <v>0.9938424409701131</v>
+        <v>1.026946187347125</v>
       </c>
       <c r="F21">
-        <v>0.985099931777657</v>
+        <v>1.032608592010855</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035870107476356</v>
+        <v>1.033249562317628</v>
       </c>
       <c r="J21">
-        <v>1.013501549682332</v>
+        <v>1.029765186218146</v>
       </c>
       <c r="K21">
-        <v>1.019905987701784</v>
+        <v>1.031950461051958</v>
       </c>
       <c r="L21">
-        <v>1.008941416829706</v>
+        <v>1.030560349282077</v>
       </c>
       <c r="M21">
-        <v>1.000369197921274</v>
+        <v>1.036201397502332</v>
       </c>
       <c r="N21">
-        <v>1.008369120630397</v>
+        <v>1.013941921213453</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9802095667312464</v>
+        <v>1.022508790270477</v>
       </c>
       <c r="D22">
-        <v>1.002890783082264</v>
+        <v>1.027923620268236</v>
       </c>
       <c r="E22">
-        <v>0.9912054476522458</v>
+        <v>1.02640977321608</v>
       </c>
       <c r="F22">
-        <v>0.9813159223162061</v>
+        <v>1.031847978622917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03496489056607</v>
+        <v>1.033114888261232</v>
       </c>
       <c r="J22">
-        <v>1.011843645213943</v>
+        <v>1.029441106410095</v>
       </c>
       <c r="K22">
-        <v>1.018405189694058</v>
+        <v>1.031664224992191</v>
       </c>
       <c r="L22">
-        <v>1.00695316301306</v>
+        <v>1.030156340980658</v>
       </c>
       <c r="M22">
-        <v>0.9972668289160382</v>
+        <v>1.035573215810761</v>
       </c>
       <c r="N22">
-        <v>1.007810030946637</v>
+        <v>1.013833299291644</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9818478745443411</v>
+        <v>1.022814199766808</v>
       </c>
       <c r="D23">
-        <v>1.004022900126818</v>
+        <v>1.028145140914074</v>
       </c>
       <c r="E23">
-        <v>0.9926080857885837</v>
+        <v>1.026694039768482</v>
       </c>
       <c r="F23">
-        <v>0.9833298063972551</v>
+        <v>1.032251096810471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035447375056667</v>
+        <v>1.033186370472483</v>
       </c>
       <c r="J23">
-        <v>1.01272611817995</v>
+        <v>1.029612913464392</v>
       </c>
       <c r="K23">
-        <v>1.019204107138199</v>
+        <v>1.031815985293234</v>
       </c>
       <c r="L23">
-        <v>1.008011170246084</v>
+        <v>1.030370484590023</v>
       </c>
       <c r="M23">
-        <v>0.9989182382839296</v>
+        <v>1.035906189103314</v>
       </c>
       <c r="N23">
-        <v>1.008107628685227</v>
+        <v>1.013890887766905</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9881608843361509</v>
+        <v>1.024017920864999</v>
       </c>
       <c r="D24">
-        <v>1.008395988711899</v>
+        <v>1.029018369067263</v>
       </c>
       <c r="E24">
-        <v>0.9980278409555075</v>
+        <v>1.027815305816707</v>
       </c>
       <c r="F24">
-        <v>0.9910873995396108</v>
+        <v>1.033840289881677</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037289902516203</v>
+        <v>1.033465813363556</v>
       </c>
       <c r="J24">
-        <v>1.016122413260429</v>
+        <v>1.030289157769618</v>
       </c>
       <c r="K24">
-        <v>1.022277248387797</v>
+        <v>1.032412976237111</v>
       </c>
       <c r="L24">
-        <v>1.012089678659429</v>
+        <v>1.031214179803295</v>
       </c>
       <c r="M24">
-        <v>1.005272859342826</v>
+        <v>1.037217905317601</v>
       </c>
       <c r="N24">
-        <v>1.009252855647067</v>
+        <v>1.014117474169822</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.995222717193458</v>
+        <v>1.025417518495339</v>
       </c>
       <c r="D25">
-        <v>1.013307380810108</v>
+        <v>1.03003396552362</v>
       </c>
       <c r="E25">
-        <v>1.004119283752274</v>
+        <v>1.029120831238167</v>
       </c>
       <c r="F25">
-        <v>0.9997627190332365</v>
+        <v>1.035688890714995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039315770198439</v>
+        <v>1.033785976363929</v>
       </c>
       <c r="J25">
-        <v>1.019911932544733</v>
+        <v>1.031073563227591</v>
       </c>
       <c r="K25">
-        <v>1.025702570327444</v>
+        <v>1.033104726761346</v>
       </c>
       <c r="L25">
-        <v>1.016653987943273</v>
+        <v>1.032194500267023</v>
       </c>
       <c r="M25">
-        <v>1.012364719600142</v>
+        <v>1.038741769224448</v>
       </c>
       <c r="N25">
-        <v>1.010530342553424</v>
+        <v>1.014380122279335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026535994458571</v>
+        <v>1.000659983974515</v>
       </c>
       <c r="D2">
-        <v>1.030845768367896</v>
+        <v>1.017102646207007</v>
       </c>
       <c r="E2">
-        <v>1.030165566476787</v>
+        <v>1.00883106049973</v>
       </c>
       <c r="F2">
-        <v>1.037166872292359</v>
+        <v>1.006442990412656</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034037997230285</v>
+        <v>1.040846261596733</v>
       </c>
       <c r="J2">
-        <v>1.031698890435828</v>
+        <v>1.022820972937984</v>
       </c>
       <c r="K2">
-        <v>1.033655599648712</v>
+        <v>1.028328747019856</v>
       </c>
       <c r="L2">
-        <v>1.032977367706252</v>
+        <v>1.020168720500772</v>
       </c>
       <c r="M2">
-        <v>1.039958531108289</v>
+        <v>1.017813288040244</v>
       </c>
       <c r="N2">
-        <v>1.014589358603693</v>
+        <v>1.011510638135989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027349334693291</v>
+        <v>1.004502749110614</v>
       </c>
       <c r="D3">
-        <v>1.031436204382928</v>
+        <v>1.01979197491879</v>
       </c>
       <c r="E3">
-        <v>1.030926108454984</v>
+        <v>1.012172980629792</v>
       </c>
       <c r="F3">
-        <v>1.038242059231663</v>
+        <v>1.011165841399596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03421903866973</v>
+        <v>1.041910406124134</v>
       </c>
       <c r="J3">
-        <v>1.032152733101873</v>
+        <v>1.024871412772088</v>
       </c>
       <c r="K3">
-        <v>1.034055061067428</v>
+        <v>1.030177725116016</v>
       </c>
       <c r="L3">
-        <v>1.033546335848341</v>
+        <v>1.022652439608428</v>
       </c>
       <c r="M3">
-        <v>1.040842766802175</v>
+        <v>1.021657819185186</v>
       </c>
       <c r="N3">
-        <v>1.014741129812803</v>
+        <v>1.012201333676376</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.02787617975084</v>
+        <v>1.006943076283163</v>
       </c>
       <c r="D4">
-        <v>1.031818706837025</v>
+        <v>1.021502794598629</v>
       </c>
       <c r="E4">
-        <v>1.031419132226238</v>
+        <v>1.014300555938669</v>
       </c>
       <c r="F4">
-        <v>1.03893871727807</v>
+        <v>1.014166165387387</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034335279573637</v>
+        <v>1.04257789336795</v>
       </c>
       <c r="J4">
-        <v>1.032446300610625</v>
+        <v>1.026170829648387</v>
       </c>
       <c r="K4">
-        <v>1.034313291789549</v>
+        <v>1.031348445903457</v>
       </c>
       <c r="L4">
-        <v>1.033914736935971</v>
+        <v>1.024229396122081</v>
       </c>
       <c r="M4">
-        <v>1.041415272907436</v>
+        <v>1.024096571723139</v>
       </c>
       <c r="N4">
-        <v>1.014839262753253</v>
+        <v>1.012638905151328</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028097797874449</v>
+        <v>1.007958276070438</v>
       </c>
       <c r="D5">
-        <v>1.031979617203184</v>
+        <v>1.02221518572989</v>
       </c>
       <c r="E5">
-        <v>1.031626613713016</v>
+        <v>1.01518689344776</v>
       </c>
       <c r="F5">
-        <v>1.03923181645785</v>
+        <v>1.015414645275859</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034383929981603</v>
+        <v>1.042853558095308</v>
       </c>
       <c r="J5">
-        <v>1.032569691596269</v>
+        <v>1.026710728610513</v>
       </c>
       <c r="K5">
-        <v>1.034421791650694</v>
+        <v>1.031834617850046</v>
       </c>
       <c r="L5">
-        <v>1.034069669034797</v>
+        <v>1.024885324199933</v>
       </c>
       <c r="M5">
-        <v>1.041656036485401</v>
+        <v>1.025110494944931</v>
       </c>
       <c r="N5">
-        <v>1.014880499913449</v>
+        <v>1.012820677023491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028135016256814</v>
+        <v>1.008128114108013</v>
       </c>
       <c r="D6">
-        <v>1.032006640950493</v>
+        <v>1.022334403768604</v>
       </c>
       <c r="E6">
-        <v>1.031661463284191</v>
+        <v>1.015335245866885</v>
       </c>
       <c r="F6">
-        <v>1.039281042215909</v>
+        <v>1.015623529976344</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034392085840891</v>
+        <v>1.042899556176041</v>
       </c>
       <c r="J6">
-        <v>1.032590408000214</v>
+        <v>1.026801011020695</v>
       </c>
       <c r="K6">
-        <v>1.034440005685481</v>
+        <v>1.031915900752167</v>
       </c>
       <c r="L6">
-        <v>1.034095686077595</v>
+        <v>1.024995051138715</v>
       </c>
       <c r="M6">
-        <v>1.041696466531605</v>
+        <v>1.025280083600299</v>
       </c>
       <c r="N6">
-        <v>1.014887422750915</v>
+        <v>1.012851070889773</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027879140504438</v>
+        <v>1.00695668308192</v>
       </c>
       <c r="D7">
-        <v>1.031820856513413</v>
+        <v>1.021512340223306</v>
       </c>
       <c r="E7">
-        <v>1.031421903764139</v>
+        <v>1.014312430704335</v>
       </c>
       <c r="F7">
-        <v>1.038942632804126</v>
+        <v>1.01418289754295</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034335930497238</v>
+        <v>1.042581596120632</v>
       </c>
       <c r="J7">
-        <v>1.032447949465801</v>
+        <v>1.026178068633665</v>
       </c>
       <c r="K7">
-        <v>1.034314741808428</v>
+        <v>1.031354965532612</v>
       </c>
       <c r="L7">
-        <v>1.033916806926782</v>
+        <v>1.024238188007594</v>
       </c>
       <c r="M7">
-        <v>1.041418489681066</v>
+        <v>1.024110163833679</v>
       </c>
       <c r="N7">
-        <v>1.014839813837163</v>
+        <v>1.012641342501347</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026810749843939</v>
+        <v>1.001968443696674</v>
       </c>
       <c r="D8">
-        <v>1.031045214663455</v>
+        <v>1.018017713008109</v>
       </c>
       <c r="E8">
-        <v>1.03042240735422</v>
+        <v>1.009967853967938</v>
       </c>
       <c r="F8">
-        <v>1.037530041505022</v>
+        <v>1.008050919976377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034099368056436</v>
+        <v>1.041210322415269</v>
       </c>
       <c r="J8">
-        <v>1.031852288545628</v>
+        <v>1.023519699273049</v>
       </c>
       <c r="K8">
-        <v>1.033790650110609</v>
+        <v>1.028959030901638</v>
       </c>
       <c r="L8">
-        <v>1.033169602524252</v>
+        <v>1.021014476180406</v>
       </c>
       <c r="M8">
-        <v>1.040257290393607</v>
+        <v>1.019122929703932</v>
       </c>
       <c r="N8">
-        <v>1.014640665301424</v>
+        <v>1.011746033645682</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024932460479898</v>
+        <v>0.992808340636912</v>
       </c>
       <c r="D9">
-        <v>1.029681958638151</v>
+        <v>1.011625928172868</v>
       </c>
       <c r="E9">
-        <v>1.028668152687741</v>
+        <v>1.002033168737385</v>
       </c>
       <c r="F9">
-        <v>1.035048117974889</v>
+        <v>0.99679676723338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033675610330731</v>
+        <v>1.038627690696192</v>
       </c>
       <c r="J9">
-        <v>1.030801947246801</v>
+        <v>1.018617636171237</v>
       </c>
       <c r="K9">
-        <v>1.032865285369823</v>
+        <v>1.024533157405625</v>
       </c>
       <c r="L9">
-        <v>1.031854834870662</v>
+        <v>1.015093345100948</v>
       </c>
       <c r="M9">
-        <v>1.038213804044003</v>
+        <v>1.00994202932542</v>
       </c>
       <c r="N9">
-        <v>1.014289197700811</v>
+        <v>1.010094073374661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023683282010027</v>
+        <v>0.986428555043556</v>
       </c>
       <c r="D10">
-        <v>1.028775586229752</v>
+        <v>1.007194320840344</v>
       </c>
       <c r="E10">
-        <v>1.027503448120229</v>
+        <v>0.9965382490524913</v>
       </c>
       <c r="F10">
-        <v>1.033398427256921</v>
+        <v>0.9889590006290793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03338849909931</v>
+        <v>1.036787062476104</v>
       </c>
       <c r="J10">
-        <v>1.030101306339908</v>
+        <v>1.015191169646244</v>
       </c>
       <c r="K10">
-        <v>1.032247196930741</v>
+        <v>1.021434883283335</v>
       </c>
       <c r="L10">
-        <v>1.030979681100072</v>
+        <v>1.010970289049676</v>
       </c>
       <c r="M10">
-        <v>1.036853346768265</v>
+        <v>1.003530506847142</v>
       </c>
       <c r="N10">
-        <v>1.014054545537573</v>
+        <v>1.008938863005013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023143107527513</v>
+        <v>0.9835954866534148</v>
       </c>
       <c r="D11">
-        <v>1.028383721799947</v>
+        <v>1.005231809019923</v>
       </c>
       <c r="E11">
-        <v>1.027000277782502</v>
+        <v>0.9941060432840773</v>
       </c>
       <c r="F11">
-        <v>1.032685272322289</v>
+        <v>0.9854776930073227</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03326309183482</v>
+        <v>1.035960153423171</v>
       </c>
       <c r="J11">
-        <v>1.029797836577305</v>
+        <v>1.013667003026976</v>
       </c>
       <c r="K11">
-        <v>1.031979291728037</v>
+        <v>1.02005573095995</v>
       </c>
       <c r="L11">
-        <v>1.030601068622877</v>
+        <v>1.009139973588246</v>
       </c>
       <c r="M11">
-        <v>1.036264707779608</v>
+        <v>1.00067877556668</v>
       </c>
       <c r="N11">
-        <v>1.013952862918192</v>
+        <v>1.008424913888567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022942573537348</v>
+        <v>0.9825320272675351</v>
       </c>
       <c r="D12">
-        <v>1.028238257799269</v>
+        <v>1.004496007684932</v>
       </c>
       <c r="E12">
-        <v>1.026813553088556</v>
+        <v>0.9931942894801399</v>
       </c>
       <c r="F12">
-        <v>1.032420551761554</v>
+        <v>0.9841706993228061</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033216347394399</v>
+        <v>1.035648354094779</v>
       </c>
       <c r="J12">
-        <v>1.029685102310476</v>
+        <v>1.013094513445709</v>
       </c>
       <c r="K12">
-        <v>1.031879740494633</v>
+        <v>1.01953757523651</v>
       </c>
       <c r="L12">
-        <v>1.030460486741249</v>
+        <v>1.008453048086648</v>
       </c>
       <c r="M12">
-        <v>1.03604612921009</v>
+        <v>0.9996075797939733</v>
       </c>
       <c r="N12">
-        <v>1.013915082352928</v>
+        <v>1.008231860412698</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02298558371828</v>
+        <v>0.9827606554878385</v>
       </c>
       <c r="D13">
-        <v>1.028269456136526</v>
+        <v>1.004654153761587</v>
       </c>
       <c r="E13">
-        <v>1.026853598214483</v>
+        <v>0.9933902468332313</v>
       </c>
       <c r="F13">
-        <v>1.032477327200021</v>
+        <v>0.9844516943934681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03322638158396</v>
+        <v>1.035715449070453</v>
       </c>
       <c r="J13">
-        <v>1.029709284722928</v>
+        <v>1.013217606005016</v>
       </c>
       <c r="K13">
-        <v>1.031901096333839</v>
+        <v>1.019648991223476</v>
       </c>
       <c r="L13">
-        <v>1.030490639673317</v>
+        <v>1.008600720714411</v>
       </c>
       <c r="M13">
-        <v>1.036093011957059</v>
+        <v>0.999837904997998</v>
       </c>
       <c r="N13">
-        <v>1.013923186908767</v>
+        <v>1.008273369771119</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023126529055142</v>
+        <v>0.9835078110201791</v>
       </c>
       <c r="D14">
-        <v>1.028371695816187</v>
+        <v>1.005171128647094</v>
       </c>
       <c r="E14">
-        <v>1.02698483947755</v>
+        <v>0.9940308495286283</v>
       </c>
       <c r="F14">
-        <v>1.032663386823786</v>
+        <v>0.985369944093599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033259231238326</v>
+        <v>1.035934475755691</v>
       </c>
       <c r="J14">
-        <v>1.029788518167925</v>
+        <v>1.01361981190524</v>
       </c>
       <c r="K14">
-        <v>1.031971063587772</v>
+        <v>1.020013021326108</v>
       </c>
       <c r="L14">
-        <v>1.030589447019301</v>
+        <v>1.009083338052438</v>
       </c>
       <c r="M14">
-        <v>1.036246638611454</v>
+        <v>1.000590477244031</v>
       </c>
       <c r="N14">
-        <v>1.013949740189226</v>
+        <v>1.008409000403224</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023213384863964</v>
+        <v>0.9839666668043876</v>
       </c>
       <c r="D15">
-        <v>1.028434701283086</v>
+        <v>1.00548873908022</v>
       </c>
       <c r="E15">
-        <v>1.027065724815214</v>
+        <v>0.9944244311523651</v>
       </c>
       <c r="F15">
-        <v>1.032778047769941</v>
+        <v>0.9859338458581913</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033279449466393</v>
+        <v>1.036068804534991</v>
       </c>
       <c r="J15">
-        <v>1.029837334939348</v>
+        <v>1.013866775124258</v>
       </c>
       <c r="K15">
-        <v>1.032014167545007</v>
+        <v>1.020236526348517</v>
       </c>
       <c r="L15">
-        <v>1.030650332370381</v>
+        <v>1.009379748974865</v>
       </c>
       <c r="M15">
-        <v>1.036341302121092</v>
+        <v>1.001052561835425</v>
       </c>
       <c r="N15">
-        <v>1.0139660990813</v>
+        <v>1.008492279358241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02371914707698</v>
+        <v>0.9866150451228966</v>
       </c>
       <c r="D16">
-        <v>1.028801605779038</v>
+        <v>1.007323623631623</v>
       </c>
       <c r="E16">
-        <v>1.027536866348834</v>
+        <v>0.996698520616117</v>
       </c>
       <c r="F16">
-        <v>1.033445781767021</v>
+        <v>0.9891881383659736</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033396799131767</v>
+        <v>1.036841298583784</v>
       </c>
       <c r="J16">
-        <v>1.030121444874581</v>
+        <v>1.015291448452347</v>
       </c>
       <c r="K16">
-        <v>1.032264971344635</v>
+        <v>1.021525601910833</v>
       </c>
       <c r="L16">
-        <v>1.031004815533029</v>
+        <v>1.011090787381817</v>
       </c>
       <c r="M16">
-        <v>1.036892422310734</v>
+        <v>1.00371812645488</v>
       </c>
       <c r="N16">
-        <v>1.014061292297318</v>
+        <v>1.008972675481424</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024036594314643</v>
+        <v>0.9882570443239305</v>
       </c>
       <c r="D17">
-        <v>1.029031917281439</v>
+        <v>1.008462728756315</v>
       </c>
       <c r="E17">
-        <v>1.027832711282316</v>
+        <v>0.9981105801531004</v>
       </c>
       <c r="F17">
-        <v>1.033864948046642</v>
+        <v>0.9912055396154007</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0334701190852</v>
+        <v>1.037317750480407</v>
       </c>
       <c r="J17">
-        <v>1.030299636833014</v>
+        <v>1.016174088392185</v>
       </c>
       <c r="K17">
-        <v>1.032422222728269</v>
+        <v>1.022323985072926</v>
       </c>
       <c r="L17">
-        <v>1.031227264057376</v>
+        <v>1.012151819044934</v>
       </c>
       <c r="M17">
-        <v>1.03723824598616</v>
+        <v>1.005369544939658</v>
       </c>
       <c r="N17">
-        <v>1.01412098424429</v>
+        <v>1.009270278661633</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02422182606303</v>
+        <v>0.9892080221619206</v>
       </c>
       <c r="D18">
-        <v>1.029166311943822</v>
+        <v>1.009122963338774</v>
       </c>
       <c r="E18">
-        <v>1.028005383895875</v>
+        <v>0.9989291363955792</v>
       </c>
       <c r="F18">
-        <v>1.034109553672503</v>
+        <v>0.9923738650172578</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033512780530591</v>
+        <v>1.037592782439592</v>
       </c>
       <c r="J18">
-        <v>1.03040356466049</v>
+        <v>1.016685029888689</v>
       </c>
       <c r="K18">
-        <v>1.032513918789534</v>
+        <v>1.022786058974603</v>
       </c>
       <c r="L18">
-        <v>1.031357046739499</v>
+        <v>1.012766379977236</v>
       </c>
       <c r="M18">
-        <v>1.037440002251967</v>
+        <v>1.006325546830825</v>
       </c>
       <c r="N18">
-        <v>1.014155794120797</v>
+        <v>1.009442546400633</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024284997155178</v>
+        <v>0.9895311477901338</v>
       </c>
       <c r="D19">
-        <v>1.029212146814912</v>
+        <v>1.00934738466497</v>
       </c>
       <c r="E19">
-        <v>1.028064279615256</v>
+        <v>0.9992073934559522</v>
       </c>
       <c r="F19">
-        <v>1.03419297701527</v>
+        <v>0.9927708321052661</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03352730917984</v>
+        <v>1.037686078253003</v>
       </c>
       <c r="J19">
-        <v>1.03043899988473</v>
+        <v>1.016858596106194</v>
       </c>
       <c r="K19">
-        <v>1.032545180332246</v>
+        <v>1.022943008793534</v>
       </c>
       <c r="L19">
-        <v>1.031401304704815</v>
+        <v>1.0129752053865</v>
       </c>
       <c r="M19">
-        <v>1.037508803220693</v>
+        <v>1.006650307669536</v>
       </c>
       <c r="N19">
-        <v>1.014167662117082</v>
+        <v>1.009501064028375</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024002527964142</v>
+        <v>0.9880815775735583</v>
       </c>
       <c r="D20">
-        <v>1.029007201040406</v>
+        <v>1.008340948572861</v>
       </c>
       <c r="E20">
-        <v>1.027800958399197</v>
+        <v>0.9979596070595137</v>
       </c>
       <c r="F20">
-        <v>1.033819963774723</v>
+        <v>0.9909899645878214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033462263388221</v>
+        <v>1.037266930104441</v>
       </c>
       <c r="J20">
-        <v>1.030280519396467</v>
+        <v>1.016079793432745</v>
       </c>
       <c r="K20">
-        <v>1.032405353825619</v>
+        <v>1.022238701088396</v>
       </c>
       <c r="L20">
-        <v>1.031203394093473</v>
+        <v>1.012038429452181</v>
       </c>
       <c r="M20">
-        <v>1.037201137907478</v>
+        <v>1.005193116657896</v>
       </c>
       <c r="N20">
-        <v>1.014114580628485</v>
+        <v>1.009238485710597</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023085021094084</v>
+        <v>0.9832881040323566</v>
       </c>
       <c r="D21">
-        <v>1.028341586228902</v>
+        <v>1.005019083557858</v>
       </c>
       <c r="E21">
-        <v>1.026946187347125</v>
+        <v>0.9938424409701123</v>
       </c>
       <c r="F21">
-        <v>1.032608592010855</v>
+        <v>0.9850999317776569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033249562317628</v>
+        <v>1.035870107476356</v>
       </c>
       <c r="J21">
-        <v>1.029765186218146</v>
+        <v>1.013501549682332</v>
       </c>
       <c r="K21">
-        <v>1.031950461051958</v>
+        <v>1.019905987701784</v>
       </c>
       <c r="L21">
-        <v>1.030560349282077</v>
+        <v>1.008941416829706</v>
       </c>
       <c r="M21">
-        <v>1.036201397502332</v>
+        <v>1.000369197921274</v>
       </c>
       <c r="N21">
-        <v>1.013941921213453</v>
+        <v>1.008369120630397</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022508790270477</v>
+        <v>0.9802095667312466</v>
       </c>
       <c r="D22">
-        <v>1.027923620268236</v>
+        <v>1.002890783082264</v>
       </c>
       <c r="E22">
-        <v>1.02640977321608</v>
+        <v>0.9912054476522459</v>
       </c>
       <c r="F22">
-        <v>1.031847978622917</v>
+        <v>0.9813159223162066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033114888261232</v>
+        <v>1.03496489056607</v>
       </c>
       <c r="J22">
-        <v>1.029441106410095</v>
+        <v>1.011843645213944</v>
       </c>
       <c r="K22">
-        <v>1.031664224992191</v>
+        <v>1.018405189694058</v>
       </c>
       <c r="L22">
-        <v>1.030156340980658</v>
+        <v>1.00695316301306</v>
       </c>
       <c r="M22">
-        <v>1.035573215810761</v>
+        <v>0.9972668289160387</v>
       </c>
       <c r="N22">
-        <v>1.013833299291644</v>
+        <v>1.007810030946638</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022814199766808</v>
+        <v>0.9818478745443404</v>
       </c>
       <c r="D23">
-        <v>1.028145140914074</v>
+        <v>1.004022900126817</v>
       </c>
       <c r="E23">
-        <v>1.026694039768482</v>
+        <v>0.9926080857885835</v>
       </c>
       <c r="F23">
-        <v>1.032251096810471</v>
+        <v>0.9833298063972548</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033186370472483</v>
+        <v>1.035447375056667</v>
       </c>
       <c r="J23">
-        <v>1.029612913464392</v>
+        <v>1.01272611817995</v>
       </c>
       <c r="K23">
-        <v>1.031815985293234</v>
+        <v>1.019204107138199</v>
       </c>
       <c r="L23">
-        <v>1.030370484590023</v>
+        <v>1.008011170246084</v>
       </c>
       <c r="M23">
-        <v>1.035906189103314</v>
+        <v>0.9989182382839292</v>
       </c>
       <c r="N23">
-        <v>1.013890887766905</v>
+        <v>1.008107628685226</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024017920864999</v>
+        <v>0.9881608843361507</v>
       </c>
       <c r="D24">
-        <v>1.029018369067263</v>
+        <v>1.008395988711899</v>
       </c>
       <c r="E24">
-        <v>1.027815305816707</v>
+        <v>0.9980278409555072</v>
       </c>
       <c r="F24">
-        <v>1.033840289881677</v>
+        <v>0.9910873995396107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033465813363556</v>
+        <v>1.037289902516203</v>
       </c>
       <c r="J24">
-        <v>1.030289157769618</v>
+        <v>1.016122413260429</v>
       </c>
       <c r="K24">
-        <v>1.032412976237111</v>
+        <v>1.022277248387797</v>
       </c>
       <c r="L24">
-        <v>1.031214179803295</v>
+        <v>1.012089678659429</v>
       </c>
       <c r="M24">
-        <v>1.037217905317601</v>
+        <v>1.005272859342826</v>
       </c>
       <c r="N24">
-        <v>1.014117474169822</v>
+        <v>1.009252855647067</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025417518495339</v>
+        <v>0.9952227171934579</v>
       </c>
       <c r="D25">
-        <v>1.03003396552362</v>
+        <v>1.013307380810108</v>
       </c>
       <c r="E25">
-        <v>1.029120831238167</v>
+        <v>1.004119283752274</v>
       </c>
       <c r="F25">
-        <v>1.035688890714995</v>
+        <v>0.9997627190332364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033785976363929</v>
+        <v>1.039315770198439</v>
       </c>
       <c r="J25">
-        <v>1.031073563227591</v>
+        <v>1.019911932544733</v>
       </c>
       <c r="K25">
-        <v>1.033104726761346</v>
+        <v>1.025702570327444</v>
       </c>
       <c r="L25">
-        <v>1.032194500267023</v>
+        <v>1.016653987943273</v>
       </c>
       <c r="M25">
-        <v>1.038741769224448</v>
+        <v>1.012364719600142</v>
       </c>
       <c r="N25">
-        <v>1.014380122279335</v>
+        <v>1.010530342553424</v>
       </c>
     </row>
   </sheetData>
